--- a/database/translations.xlsx
+++ b/database/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Playground\bhaiya-orders\zoho-bhor-farms\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD4741E-FAA9-4D6C-99E9-467EC0F08DD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E37E6D-E0BC-4E99-A0D2-983973DC7022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="158">
   <si>
     <t>Final Item Name</t>
   </si>
@@ -482,13 +482,25 @@
   </si>
   <si>
     <t>Red/Yellow Bell Pepper</t>
+  </si>
+  <si>
+    <t>Radish/Muli</t>
+  </si>
+  <si>
+    <t>Lal Math/Amaranthus</t>
+  </si>
+  <si>
+    <t>मुळा</t>
+  </si>
+  <si>
+    <t>लाल माठ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -515,6 +527,11 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="3">
@@ -595,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -610,6 +627,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -828,15 +848,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -844,7 +864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -852,7 +872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="3" t="s">
         <v>150</v>
       </c>
@@ -860,7 +880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="12.75">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -868,7 +888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="12.75">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -876,7 +896,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="12.75">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -884,7 +904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="12.75">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -892,7 +912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="12.75">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -900,7 +920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="12.75">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -908,7 +928,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="12.75">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -916,7 +936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="12.75">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -924,7 +944,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="12.75">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
@@ -932,7 +952,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="12.75">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -940,7 +960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="12.75">
       <c r="A14" s="3" t="s">
         <v>151</v>
       </c>
@@ -948,7 +968,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="12.75">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -956,7 +976,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="12.75">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -964,7 +984,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="12.75">
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
@@ -972,7 +992,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="12.75">
       <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
@@ -980,7 +1000,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="12.75">
       <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
@@ -988,7 +1008,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="12.75">
       <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
@@ -996,7 +1016,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="12.75">
       <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
@@ -1004,7 +1024,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="12.75">
       <c r="A22" s="3" t="s">
         <v>39</v>
       </c>
@@ -1012,7 +1032,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="12.75">
       <c r="A23" s="3" t="s">
         <v>41</v>
       </c>
@@ -1020,7 +1040,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="12.75">
       <c r="A24" s="3" t="s">
         <v>43</v>
       </c>
@@ -1028,7 +1048,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="12.75">
       <c r="A25" s="3" t="s">
         <v>152</v>
       </c>
@@ -1036,7 +1056,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="12.75">
       <c r="A26" s="3" t="s">
         <v>46</v>
       </c>
@@ -1044,7 +1064,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="12.75">
       <c r="A27" s="3" t="s">
         <v>48</v>
       </c>
@@ -1052,7 +1072,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="12.75">
       <c r="A28" s="3" t="s">
         <v>50</v>
       </c>
@@ -1060,7 +1080,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="12.75">
       <c r="A29" s="3" t="s">
         <v>52</v>
       </c>
@@ -1068,7 +1088,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="12.75">
       <c r="A30" s="3" t="s">
         <v>54</v>
       </c>
@@ -1076,7 +1096,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="12.75">
       <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
@@ -1084,7 +1104,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="12.75">
       <c r="A32" s="3" t="s">
         <v>58</v>
       </c>
@@ -1092,7 +1112,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="12.75">
       <c r="A33" s="3" t="s">
         <v>60</v>
       </c>
@@ -1100,7 +1120,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="12.75">
       <c r="A34" s="3" t="s">
         <v>61</v>
       </c>
@@ -1108,7 +1128,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="12.75">
       <c r="A35" s="3" t="s">
         <v>153</v>
       </c>
@@ -1116,7 +1136,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="12.75">
       <c r="A36" s="3" t="s">
         <v>64</v>
       </c>
@@ -1124,7 +1144,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="12.75">
       <c r="A37" s="3" t="s">
         <v>65</v>
       </c>
@@ -1132,7 +1152,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="12.75">
       <c r="A38" s="3" t="s">
         <v>67</v>
       </c>
@@ -1140,7 +1160,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="12.75">
       <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
@@ -1148,7 +1168,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="12.75">
       <c r="A40" s="3" t="s">
         <v>70</v>
       </c>
@@ -1156,7 +1176,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="12.75">
       <c r="A41" s="3" t="s">
         <v>149</v>
       </c>
@@ -1164,7 +1184,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="12.75">
       <c r="A42" s="3" t="s">
         <v>73</v>
       </c>
@@ -1172,7 +1192,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="12.75">
       <c r="A43" s="3" t="s">
         <v>75</v>
       </c>
@@ -1180,7 +1200,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="12.75">
       <c r="A44" s="3" t="s">
         <v>77</v>
       </c>
@@ -1188,7 +1208,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="12.75">
       <c r="A45" s="3" t="s">
         <v>79</v>
       </c>
@@ -1196,7 +1216,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -1204,7 +1224,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="15.75" customHeight="1">
       <c r="A47" t="s">
         <v>83</v>
       </c>
@@ -1212,7 +1232,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="15.75" customHeight="1">
       <c r="A48" t="s">
         <v>106</v>
       </c>
@@ -1220,7 +1240,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="15.75" customHeight="1">
       <c r="A49" t="s">
         <v>85</v>
       </c>
@@ -1228,7 +1248,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="15.75" customHeight="1">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -1236,7 +1256,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="15.75" customHeight="1">
       <c r="A51" t="s">
         <v>89</v>
       </c>
@@ -1244,7 +1264,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="15.75" customHeight="1">
       <c r="A52" t="s">
         <v>91</v>
       </c>
@@ -1252,7 +1272,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="15.75" customHeight="1">
       <c r="A53" t="s">
         <v>93</v>
       </c>
@@ -1260,7 +1280,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="15.75" customHeight="1">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -1268,7 +1288,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="15.75" customHeight="1">
       <c r="A55" t="s">
         <v>95</v>
       </c>
@@ -1276,7 +1296,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="15.75" customHeight="1">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -1284,7 +1304,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="15.75" customHeight="1">
       <c r="A57" t="s">
         <v>98</v>
       </c>
@@ -1292,7 +1312,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="15.75" customHeight="1">
       <c r="A58" t="s">
         <v>100</v>
       </c>
@@ -1300,7 +1320,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="15.75" customHeight="1">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -1308,7 +1328,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="15.75" customHeight="1">
       <c r="A60" t="s">
         <v>105</v>
       </c>
@@ -1316,7 +1336,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="15.75" customHeight="1">
       <c r="A61" t="s">
         <v>108</v>
       </c>
@@ -1324,7 +1344,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="15.75" customHeight="1">
       <c r="A62" s="5" t="s">
         <v>110</v>
       </c>
@@ -1333,7 +1353,7 @@
       </c>
       <c r="I62" s="5"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="15.75" customHeight="1">
       <c r="A63" s="5" t="s">
         <v>112</v>
       </c>
@@ -1342,7 +1362,7 @@
       </c>
       <c r="I63" s="5"/>
     </row>
-    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="15.75" customHeight="1">
       <c r="A64" s="5" t="s">
         <v>114</v>
       </c>
@@ -1351,7 +1371,7 @@
       </c>
       <c r="I64" s="5"/>
     </row>
-    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="15.75" customHeight="1">
       <c r="A65" s="5" t="s">
         <v>61</v>
       </c>
@@ -1360,7 +1380,7 @@
       </c>
       <c r="I65" s="5"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="15.75" customHeight="1">
       <c r="A66" t="s">
         <v>117</v>
       </c>
@@ -1368,7 +1388,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="15.75" customHeight="1">
       <c r="A67" t="s">
         <v>119</v>
       </c>
@@ -1376,7 +1396,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="15.75" customHeight="1">
       <c r="A68" t="s">
         <v>121</v>
       </c>
@@ -1384,7 +1404,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="15.75" customHeight="1">
       <c r="A69" t="s">
         <v>123</v>
       </c>
@@ -1392,7 +1412,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="15.75" customHeight="1">
       <c r="A70" t="s">
         <v>125</v>
       </c>
@@ -1400,7 +1420,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="15.75" customHeight="1">
       <c r="A71" t="s">
         <v>127</v>
       </c>
@@ -1408,7 +1428,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="15.75" customHeight="1">
       <c r="A72" t="s">
         <v>129</v>
       </c>
@@ -1416,7 +1436,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="15.75" customHeight="1">
       <c r="A73" t="s">
         <v>131</v>
       </c>
@@ -1424,7 +1444,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="15.75" customHeight="1">
       <c r="A74" t="s">
         <v>133</v>
       </c>
@@ -1432,7 +1452,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="15.75" customHeight="1">
       <c r="A75" t="s">
         <v>135</v>
       </c>
@@ -1440,7 +1460,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="15.75" customHeight="1">
       <c r="A76" t="s">
         <v>136</v>
       </c>
@@ -1448,7 +1468,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="15.75" customHeight="1">
       <c r="A77" t="s">
         <v>138</v>
       </c>
@@ -1456,7 +1476,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="15.75" customHeight="1">
       <c r="A78" t="s">
         <v>140</v>
       </c>
@@ -1464,7 +1484,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="15.75" customHeight="1">
       <c r="A79" t="s">
         <v>142</v>
       </c>
@@ -1472,7 +1492,24 @@
         <v>141</v>
       </c>
     </row>
+    <row r="80" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A80" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A81" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B81" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/translations.xlsx
+++ b/database/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Playground\bhaiya-orders\zoho-bhor-farms\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E37E6D-E0BC-4E99-A0D2-983973DC7022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE01C579-9DEF-42E0-B324-A253F8D23470}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="159">
   <si>
     <t>Final Item Name</t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>लाल माठ</t>
+  </si>
+  <si>
+    <t>Babycorn</t>
   </si>
 </sst>
 </file>
@@ -848,10 +851,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1508,6 +1511,14 @@
         <v>157</v>
       </c>
     </row>
+    <row r="82" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A82" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
